--- a/output/StructureDefinition-rare-care-plan.xlsx
+++ b/output/StructureDefinition-rare-care-plan.xlsx
@@ -1755,8 +1755,8 @@
     <t>PlanDefinition.action.definition[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition|Questionnaire)
-</t>
+    <t>canonical(ActivityDefinition|PlanDefinition|Questionnaire)
+uri</t>
   </si>
   <si>
     <t>Description of the activity to be performed</t>

--- a/output/StructureDefinition-rare-care-plan.xlsx
+++ b/output/StructureDefinition-rare-care-plan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4391" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4392" uniqueCount="646">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T15:37:55+02:00</t>
+    <t>2022-10-26T12:16:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,7 +79,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -220,15 +220,15 @@
     <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Mapping: Object Implementation Information</t>
   </si>
   <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
     <t>Mapping: Rare Care Data Model</t>
   </si>
   <si>
@@ -244,10 +244,13 @@
     <t>The definition of a plan for a series of actions, independent of any specific patient or context</t>
   </si>
   <si>
-    <t>This resource allows for the definition of various types of plans as a sharable, consumable, and executable artifact. The resource is general enough to support the description of a broad range of clinical artifacts such as clinical decision support rules, order sets and protocols.</t>
-  </si>
-  <si>
-    <t>Entity. Role, or Act</t>
+    <t>This resource allows for the definition of various types of plans as a sharable, consumable, and executable artifact. The resource is general enough to support the description of a broad range of clinical and non-clinical artifacts such as clinical decision support rules, order sets, protocols, and drug quality specifications.</t>
+  </si>
+  <si>
+    <t>Act[classCode=GROUPER;moodCode=DEFN]</t>
+  </si>
+  <si>
+    <t>clinical.general</t>
   </si>
   <si>
     <t>RareCondition</t>
@@ -336,7 +339,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>IETF language tag</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -394,6 +397,10 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -434,7 +441,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -450,14 +457,17 @@
   </si>
   <si>
     <t>Can be a urn:uuid: or a urn:oid: but real http: addresses are preferred.  Multiple instances may share the same URL if they have a distinct version.
-The determination of when to create a new version of a resource (same url, new version) vs. defining a new artifact is up to the author.  Considerations for making this decision are found in [Technical and Business Versions](http://hl7.org/fhir/R4/resource.html#versions). 
-In some cases, the resource can no longer be found at the stated url, but the url itself cannot change. Implementations can use the [meta.source](http://hl7.org/fhir/R4/resource.html#meta) element to indicate where the current master source of the resource can be found.</t>
+The determination of when to create a new version of a resource (same url, new version) vs. defining a new artifact is up to the author.  Considerations for making this decision are found in [Technical and Business Versions](http://hl7.org/fhir/2021Mar/resource.html#versions). 
+In some cases, the resource can no longer be found at the stated url, but the url itself cannot change. Implementations can use the [meta.source](http://hl7.org/fhir/2021Mar/resource.html#meta) element to indicate where the current master source of the resource can be found.</t>
   </si>
   <si>
     <t>Allows the plan definition to be referenced by a single globally unique identifier.</t>
   </si>
   <si>
     <t>Definition.url</t>
+  </si>
+  <si>
+    <t>.identifier[scope=BUSN;reliability=ISS]</t>
   </si>
   <si>
     <t>FiveWs.identifier</t>
@@ -485,6 +495,9 @@
     <t>Definition.identifier</t>
   </si>
   <si>
+    <t>.identifier</t>
+  </si>
+  <si>
     <t>no-gen-base</t>
   </si>
   <si>
@@ -507,6 +520,9 @@
     <t>Definition.version</t>
   </si>
   <si>
+    <t>N/A (to add?)</t>
+  </si>
+  <si>
     <t>FiveWs.version</t>
   </si>
   <si>
@@ -525,7 +541,7 @@
     <t>Support human navigation and code generation.</t>
   </si>
   <si>
-    <t xml:space="preserve">inv-0
+    <t xml:space="preserve">cnl-0
 </t>
   </si>
   <si>
@@ -542,6 +558,9 @@
   </si>
   <si>
     <t>Definition.title</t>
+  </si>
+  <si>
+    <t>.title</t>
   </si>
   <si>
     <t>PlanDefinition.subtitle</t>
@@ -600,10 +619,13 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.3.0</t>
   </si>
   <si>
     <t>Definition.status {different ValueSet}</t>
+  </si>
+  <si>
+    <t>.status</t>
   </si>
   <si>
     <t>FiveWs.status</t>
@@ -635,13 +657,16 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(Group)</t>
+Reference(Group)canonical(MedicinalProductDefinition|SubstanceDefinition|AdministrableProductDefinition|ManufacturedItemDefinition|PackagedProductDefinition)</t>
   </si>
   <si>
     <t>Type of individual the plan definition is focused on</t>
   </si>
   <si>
-    <t>A code or group definition that describes the intended subject of the plan definition.</t>
+    <t>A code, group definition, or canonical reference that describes  or identifies the intended subject of the plan definition. Canonical references are allowed to support the definition of protocols for drug and substance quality specifications, and is allowed to reference a MedicinalProductDefinition, SubstanceDefinition, AdministrableProductDefinition, ManufacturedItemDefinition, or PackagedProductDefinition resource.</t>
+  </si>
+  <si>
+    <t>Note that the choice of canonical for the subject element was introduced in R4B to support pharmaceutical quality use cases. To ensure as much backwards-compatibility as possible, it is recommended to only use the new canonical type with these use cases.</t>
   </si>
   <si>
     <t>Patient</t>
@@ -697,6 +722,9 @@
     <t>Definition.date</t>
   </si>
   <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
     <t>FiveWs.recorded</t>
   </si>
   <si>
@@ -719,6 +747,9 @@
   </si>
   <si>
     <t>Definition.publisher</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role</t>
   </si>
   <si>
     <t>FiveWs.witness</t>
@@ -743,6 +774,9 @@
     <t>Definition.contact</t>
   </si>
   <si>
+    <t>.participation[typeCode=CALLBCK].role</t>
+  </si>
+  <si>
     <t>PlanDefinition.description</t>
   </si>
   <si>
@@ -762,6 +796,9 @@
     <t>Definition.description</t>
   </si>
   <si>
+    <t>.text</t>
+  </si>
+  <si>
     <t>RareCondition.name + 'management'</t>
   </si>
   <si>
@@ -823,6 +860,9 @@
     <t>Definition.purpose</t>
   </si>
   <si>
+    <t>.reasonCode.text</t>
+  </si>
+  <si>
     <t>FiveWs.why[x]</t>
   </si>
   <si>
@@ -873,6 +913,9 @@
     <t>Definition.approvalDate</t>
   </si>
   <si>
+    <t>.outboundRelationship[typeCode="SUBJ"].act[classCode=CACT;moodCode=EVN;code="approval"].effectiveTime</t>
+  </si>
+  <si>
     <t>PlanDefinition.lastReviewDate</t>
   </si>
   <si>
@@ -889,6 +932,9 @@
   </si>
   <si>
     <t>Definition.lastReviewDate</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="SUBJ"; subsetCode="RECENT"].act[classCode=CACT;moodCode=EVN;code="review"].effectiveTime</t>
   </si>
   <si>
     <t>PlanDefinition.effectivePeriod</t>
@@ -1006,6 +1052,9 @@
     <t>Plan definitions must be able to provide enough information for consumers of the content (and/or interventions or results produced by the content) to be able to determine and understand the justification for and evidence in support of the content.</t>
   </si>
   <si>
+    <t>.outboundRelationship[typeCode=DOC,RSON,PREV, DRIV, USE, COMP] {successor would be PREV w/ inversionInd=true; No support for citation}</t>
+  </si>
+  <si>
     <t>Patient Organization</t>
   </si>
   <si>
@@ -1049,7 +1098,7 @@
     <t>The type of relationship to the related artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/related-artifact-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/related-artifact-type|4.3.0</t>
   </si>
   <si>
     <t>RelatedArtifact.type</t>
@@ -1174,10 +1223,14 @@
     <t>What the plan is trying to accomplish</t>
   </si>
   <si>
-    <t>Goals that describe what the activities within the plan are intended to achieve. For example, weight loss, restoring an activity of daily living, obtaining herd immunity via immunization, meeting a process improvement objective, etc.</t>
+    <t>A goal describes an expected outcome that activities within the plan are intended to achieve. For example, weight loss, restoring an activity of daily living, obtaining herd immunity via immunization, meeting a process improvement objective, meeting the acceptance criteria for a test as specified by a quality specification, etc.</t>
   </si>
   <si>
     <t>Goal information needs to be captured for order sets, protocols, and care plan definitions to better describe the objectives of the protocol activities and to guide the creation of specific goals within the derived care plans and orders.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
   </si>
   <si>
     <t>PlanDefinition.goal.id</t>
@@ -1388,7 +1441,7 @@
     <t>The target value to be achieved</t>
   </si>
   <si>
-    <t>The target value of the measure to be achieved to signify fulfillment of the goal, e.g. 150 pounds or 7.0%. Either the high or low or both values of the range can be specified. When a low value is missing, it indicates that the goal is achieved at any value at or below the high value. Similarly, if the high value is missing, it indicates that the goal is achieved at any value at or above the low value.</t>
+    <t>The target value of the measure to be achieved to signify fulfillment of the goal, e.g. 150 pounds or 7.0%, or in the case of pharmaceutical quality - NMT 0.6%, Clear solution, etc. Either the high or low or both values of the range can be specified. When a low value is missing, it indicates that the goal is achieved at any value at or below the high value. Similarly, if the high value is missing, it indicates that the goal is achieved at any value at or above the low value.</t>
   </si>
   <si>
     <t>PlanDefinition.goal.target.due</t>
@@ -1410,7 +1463,7 @@
     <t>Action defined by the plan</t>
   </si>
   <si>
-    <t>An action or group of actions to be taken as part of the plan.</t>
+    <t>An action or group of actions to be taken as part of the plan. For example, in clinical care, an action would be to prescribe a particular indicated medication, or perform a particular test as appropriate. In pharmaceutical quality, an action would be the test that needs to be performed on a drug product as defined in the quality specification.</t>
   </si>
   <si>
     <t>Note that there is overlap between many of the elements defined here and the ActivityDefinition resource. When an ActivityDefinition is referenced (using the definition element), the overlapping elements in the plan override the content of the referenced ActivityDefinition unless otherwise documented in the specific elements. See the PlanDefinition resource for more detailed information.</t>
@@ -1419,6 +1472,9 @@
     <t>{Is a contained Definition}</t>
   </si>
   <si>
+    <t>Act[classCode=ACT; moodCode=DEFN]</t>
+  </si>
+  <si>
     <t>Disease related to RareCondition</t>
   </si>
   <si>
@@ -1446,7 +1502,7 @@
     <t>User-visible title</t>
   </si>
   <si>
-    <t>The title of the action displayed to a user.</t>
+    <t>The textual description of the action displayed to a user. For example, when the action is a test to be performed, the title would be the title of the test such as Assay by HPLC.</t>
   </si>
   <si>
     <t>PlanDefinition.action.description</t>
@@ -1479,7 +1535,10 @@
     <t>Identifies the level of importance to be assigned to actioning the request.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.3.0</t>
+  </si>
+  <si>
+    <t>.priority</t>
   </si>
   <si>
     <t>PlanDefinition.action.code</t>
@@ -1488,7 +1547,16 @@
     <t>Code representing the meaning of the action or sub-actions</t>
   </si>
   <si>
-    <t>A code that provides meaning for the action or action group. For example, a section may have a LOINC code for the section of a documentation template.</t>
+    <t>A code that provides a meaning, grouping, or classification for the action or action group. For example, a section may have a LOINC code for the section of a documentation template. In pharmaceutical quality, an action (Test) such as pH could be classified as a physical property.</t>
+  </si>
+  <si>
+    <t>Provides examples of actions to be performed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/action-code</t>
+  </si>
+  <si>
+    <t>.classCode</t>
   </si>
   <si>
     <t>PlanDefinition.action.reason</t>
@@ -1503,6 +1571,15 @@
     <t>This is different than the clinical evidence documentation, it's an actual business description of the reason for performing the action.</t>
   </si>
   <si>
+    <t>Provides examples of reasons for actions to be performed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/action-reason-code</t>
+  </si>
+  <si>
+    <t>.reasonCode</t>
+  </si>
+  <si>
     <t>PlanDefinition.action.documentation</t>
   </si>
   <si>
@@ -1518,16 +1595,20 @@
     <t>What goals this action supports</t>
   </si>
   <si>
-    <t>Identifies goals that this action supports. The reference must be to a goal element defined within this plan definition.</t>
+    <t>Identifies goals that this action supports. The reference must be to a goal element defined within this plan definition. In pharmaceutical quality, a goal represents acceptance criteria (Goal) for a given action (Test), so the goalId would be the unique id of a defined goal element establishing the acceptance criteria for the action.</t>
   </si>
   <si>
     <t>PlanDefinition.action.subject[x]</t>
   </si>
   <si>
+    <t>CodeableConcept
+Reference(Group)canonical</t>
+  </si>
+  <si>
     <t>Type of individual the action is focused on</t>
   </si>
   <si>
-    <t>A code or group definition that describes the intended subject of the action and its children, if any.</t>
+    <t>A code, group definition, or canonical reference that describes the intended subject of the action and its children, if any. Canonical references are allowed to support the definition of protocols for drug and substance quality specifications, and is allowed to reference a MedicinalProductDefinition, SubstanceDefinition, AdministrableProductDefinition, ManufacturedItemDefinition, or PackagedProductDefinition resource.</t>
   </si>
   <si>
     <t>The subject of an action overrides the subject at a parent action or on the root of the PlanDefinition if specified.
@@ -1586,7 +1667,7 @@
     <t>Defines the kinds of conditions that can appear on actions.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-condition-kind|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/action-condition-kind|4.3.0</t>
   </si>
   <si>
     <t>PlanDefinition.action.condition.expression</t>
@@ -1669,7 +1750,7 @@
     <t>Defines the types of relationships between actions.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-relationship-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/action-relationship-type|4.3.0</t>
   </si>
   <si>
     <t>PlanDefinition.action.relatedAction.offset[x]</t>
@@ -1698,6 +1779,9 @@
     <t>An optional value describing when the action should be performed.</t>
   </si>
   <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
     <t>PlanDefinition.action.participant</t>
   </si>
   <si>
@@ -1707,6 +1791,9 @@
     <t>Indicates who should participate in performing the action described.</t>
   </si>
   <si>
+    <t>.participation[typeCode=PFM]</t>
+  </si>
+  <si>
     <t>PlanDefinition.action.participant.id</t>
   </si>
   <si>
@@ -1728,7 +1815,10 @@
     <t>The type of participant for the action.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-participant-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/action-participant-type|4.3.0</t>
+  </si>
+  <si>
+    <t>.role.classCode</t>
   </si>
   <si>
     <t>PlanDefinition.action.participant.role</t>
@@ -1743,7 +1833,10 @@
     <t>Defines roles played by participants for the action.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-participant-role</t>
+    <t>http://terminology.hl7.org/ValueSet/action-participant-role</t>
+  </si>
+  <si>
+    <t>.role.code</t>
   </si>
   <si>
     <t>PlanDefinition.action.type</t>
@@ -1761,6 +1854,9 @@
     <t>http://hl7.org/fhir/ValueSet/action-type</t>
   </si>
   <si>
+    <t>.moodCode { Maybe? this is effectively Create, Update, or Delete }</t>
+  </si>
+  <si>
     <t>PlanDefinition.action.groupingBehavior</t>
   </si>
   <si>
@@ -1773,7 +1869,7 @@
     <t>Defines organization behavior of a group.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-grouping-behavior|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/action-grouping-behavior|4.3.0</t>
   </si>
   <si>
     <t>PlanDefinition.action.selectionBehavior</t>
@@ -1788,7 +1884,7 @@
     <t>Defines selection behavior of a group.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-selection-behavior|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/action-selection-behavior|4.3.0</t>
   </si>
   <si>
     <t>PlanDefinition.action.requiredBehavior</t>
@@ -1803,7 +1899,7 @@
     <t>Defines expectations around whether an action or action group is required.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-required-behavior|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/action-required-behavior|4.3.0</t>
   </si>
   <si>
     <t>PlanDefinition.action.precheckBehavior</t>
@@ -1818,7 +1914,7 @@
     <t>Defines selection frequency behavior for an action or group.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-precheck-behavior|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/action-precheck-behavior|4.3.0</t>
   </si>
   <si>
     <t>PlanDefinition.action.cardinalityBehavior</t>
@@ -1833,7 +1929,7 @@
     <t>Defines behavior for an action or a group for how many times that item may be repeated.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-cardinality-behavior|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/action-cardinality-behavior|4.3.0</t>
   </si>
   <si>
     <t>PlanDefinition.action.definition[x]</t>
@@ -1898,10 +1994,10 @@
     <t>The path to the element to be set dynamically</t>
   </si>
   <si>
-    <t>The path to the element to be customized. This is the path on the resource that will hold the result of the calculation defined by the expression. The specified path SHALL be a FHIRPath resolveable on the specified target type of the ActivityDefinition, and SHALL consist only of identifiers, constant indexers, and a restricted subset of functions. The path is allowed to contain qualifiers (.) to traverse sub-elements, as well as indexers ([x]) to traverse multiple-cardinality sub-elements (see the [Simple FHIRPath Profile](http://hl7.org/fhir/R4/fhirpath.html#simple) for full details).</t>
-  </si>
-  <si>
-    <t>To specify the path to the current action being realized, the %action environment variable is available in this path. For example, to specify the description element of the target action, the path would be %action.description. The path attribute contains a [Simple FHIRPath Subset](http://hl7.org/fhir/R4/fhirpath.html#simple) that allows path traversal, but not calculation.</t>
+    <t>The path to the element to be customized. This is the path on the resource that will hold the result of the calculation defined by the expression. The specified path SHALL be a FHIRPath resolveable on the specified target type of the ActivityDefinition, and SHALL consist only of identifiers, constant indexers, and a restricted subset of functions. The path is allowed to contain qualifiers (.) to traverse sub-elements, as well as indexers ([x]) to traverse multiple-cardinality sub-elements (see the [Simple FHIRPath Profile](http://hl7.org/fhir/2021Mar/fhirpath.html#simple) for full details).</t>
+  </si>
+  <si>
+    <t>To specify the path to the current action being realized, the %action environment variable is available in this path. For example, to specify the description element of the target action, the path would be %action.description. The path attribute contains a [Simple FHIRPath Subset](http://hl7.org/fhir/2021Mar/fhirpath.html#simple) that allows path traversal, but not calculation.</t>
   </si>
   <si>
     <t>PlanDefinition.action.dynamicValue.expression</t>
@@ -2254,9 +2350,9 @@
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="38.08984375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="86.95703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="129.28125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.078125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="59.53515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2482,21 +2578,21 @@
         <v>43</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2507,7 +2603,7 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>72</v>
@@ -2516,19 +2612,19 @@
         <v>72</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2578,13 +2674,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -2610,7 +2706,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2621,7 +2717,7 @@
         <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>72</v>
@@ -2630,16 +2726,16 @@
         <v>72</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2690,19 +2786,19 @@
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>72</v>
@@ -2722,7 +2818,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2733,28 +2829,28 @@
         <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2804,19 +2900,19 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>72</v>
@@ -2836,7 +2932,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2847,7 +2943,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -2859,16 +2955,16 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2894,13 +2990,13 @@
         <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>72</v>
@@ -2918,19 +3014,19 @@
         <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>72</v>
@@ -2950,18 +3046,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -2973,16 +3069,16 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3032,31 +3128,31 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>72</v>
@@ -3064,11 +3160,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3087,16 +3183,16 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3146,7 +3242,7 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
@@ -3158,19 +3254,19 @@
         <v>72</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>72</v>
@@ -3178,11 +3274,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3201,16 +3297,16 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3260,7 +3356,7 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
@@ -3272,19 +3368,19 @@
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>72</v>
@@ -3292,11 +3388,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3309,25 +3405,25 @@
         <v>72</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>72</v>
@@ -3376,7 +3472,7 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -3388,19 +3484,19 @@
         <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>72</v>
@@ -3408,7 +3504,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3419,7 +3515,7 @@
         <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
@@ -3428,22 +3524,22 @@
         <v>72</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>72</v>
@@ -3492,28 +3588,28 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>72</v>
@@ -3524,7 +3620,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3544,22 +3640,22 @@
         <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>72</v>
@@ -3608,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
@@ -3620,19 +3716,19 @@
         <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>72</v>
@@ -3640,7 +3736,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3651,7 +3747,7 @@
         <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>72</v>
@@ -3660,19 +3756,19 @@
         <v>72</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3722,28 +3818,28 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>72</v>
@@ -3754,7 +3850,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3765,7 +3861,7 @@
         <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>72</v>
@@ -3774,22 +3870,22 @@
         <v>72</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>72</v>
@@ -3838,25 +3934,25 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>72</v>
@@ -3870,7 +3966,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3881,7 +3977,7 @@
         <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>72</v>
@@ -3890,19 +3986,19 @@
         <v>72</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3952,25 +4048,25 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>72</v>
@@ -3984,7 +4080,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3995,7 +4091,7 @@
         <v>73</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>72</v>
@@ -4007,13 +4103,13 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4064,25 +4160,25 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>72</v>
@@ -4096,7 +4192,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4107,7 +4203,7 @@
         <v>73</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>72</v>
@@ -4116,16 +4212,16 @@
         <v>72</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4137,7 +4233,7 @@
         <v>72</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>72</v>
@@ -4152,49 +4248,49 @@
         <v>72</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>72</v>
@@ -4208,7 +4304,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4216,31 +4312,31 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4266,52 +4362,52 @@
         <v>72</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Y18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="AF18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>72</v>
+        <v>196</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>72</v>
@@ -4322,7 +4418,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4333,7 +4429,7 @@
         <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>72</v>
@@ -4342,22 +4438,22 @@
         <v>72</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>72</v>
@@ -4406,28 +4502,28 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>72</v>
@@ -4438,7 +4534,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4449,7 +4545,7 @@
         <v>73</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>72</v>
@@ -4461,21 +4557,23 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="Q20" t="s" s="2">
         <v>72</v>
@@ -4496,47 +4594,47 @@
         <v>72</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>72</v>
@@ -4550,10 +4648,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>72</v>
@@ -4563,7 +4661,7 @@
         <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>72</v>
@@ -4575,27 +4673,29 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="Q21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>72</v>
@@ -4610,13 +4710,13 @@
         <v>72</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>72</v>
@@ -4634,25 +4734,25 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>72</v>
@@ -4666,18 +4766,18 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>72</v>
@@ -4686,19 +4786,19 @@
         <v>72</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4748,28 +4848,28 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>72</v>
@@ -4780,7 +4880,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4791,7 +4891,7 @@
         <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>72</v>
@@ -4800,22 +4900,22 @@
         <v>72</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>72</v>
@@ -4825,7 +4925,7 @@
         <v>72</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>72</v>
@@ -4864,28 +4964,28 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>72</v>
@@ -4896,7 +4996,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4916,19 +5016,19 @@
         <v>72</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4978,7 +5078,7 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
@@ -4990,13 +5090,13 @@
         <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>72</v>
+        <v>241</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>72</v>
@@ -5010,7 +5110,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5021,7 +5121,7 @@
         <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>72</v>
@@ -5030,19 +5130,19 @@
         <v>72</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5092,25 +5192,25 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>72</v>
+        <v>248</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>72</v>
@@ -5119,12 +5219,12 @@
         <v>72</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5144,22 +5244,22 @@
         <v>72</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>72</v>
@@ -5208,7 +5308,7 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
@@ -5220,13 +5320,13 @@
         <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>72</v>
@@ -5240,7 +5340,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5260,19 +5360,19 @@
         <v>72</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5298,13 +5398,13 @@
         <v>72</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>72</v>
@@ -5322,7 +5422,7 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
@@ -5334,13 +5434,13 @@
         <v>72</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>72</v>
@@ -5354,7 +5454,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5365,7 +5465,7 @@
         <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>72</v>
@@ -5377,16 +5477,16 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5436,31 +5536,31 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>151</v>
+        <v>270</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>72</v>
@@ -5468,7 +5568,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5479,7 +5579,7 @@
         <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>72</v>
@@ -5491,13 +5591,13 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5548,25 +5648,25 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>72</v>
@@ -5580,18 +5680,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>72</v>
@@ -5603,17 +5703,17 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>72</v>
@@ -5662,31 +5762,31 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>72</v>
@@ -5694,7 +5794,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5705,7 +5805,7 @@
         <v>73</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>72</v>
@@ -5717,16 +5817,16 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5776,31 +5876,31 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>72</v>
+        <v>286</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>72</v>
@@ -5808,7 +5908,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5819,7 +5919,7 @@
         <v>73</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>72</v>
@@ -5831,19 +5931,19 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>72</v>
@@ -5892,31 +5992,31 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>72</v>
+        <v>293</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>72</v>
@@ -5924,7 +6024,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5935,7 +6035,7 @@
         <v>73</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>72</v>
@@ -5944,22 +6044,22 @@
         <v>72</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>72</v>
@@ -6008,31 +6108,31 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>72</v>
@@ -6040,7 +6140,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6063,17 +6163,17 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>72</v>
@@ -6083,7 +6183,7 @@
         <v>72</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>72</v>
@@ -6098,13 +6198,13 @@
         <v>72</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>72</v>
@@ -6122,7 +6222,7 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
@@ -6134,13 +6234,13 @@
         <v>72</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>72</v>
@@ -6154,7 +6254,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6177,13 +6277,13 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -6234,7 +6334,7 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
@@ -6246,19 +6346,19 @@
         <v>72</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>72</v>
+        <v>313</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>298</v>
+        <v>72</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>72</v>
@@ -6266,7 +6366,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6289,13 +6389,13 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6346,7 +6446,7 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>73</v>
@@ -6358,13 +6458,13 @@
         <v>72</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>72</v>
+        <v>313</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>72</v>
@@ -6378,7 +6478,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6401,13 +6501,13 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6458,7 +6558,7 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -6470,19 +6570,19 @@
         <v>72</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>72</v>
+        <v>320</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>305</v>
+        <v>72</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>72</v>
@@ -6490,7 +6590,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6513,13 +6613,13 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6570,7 +6670,7 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
@@ -6582,19 +6682,19 @@
         <v>72</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>72</v>
+        <v>320</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>305</v>
+        <v>72</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>72</v>
@@ -6602,7 +6702,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6625,19 +6725,19 @@
         <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>72</v>
@@ -6686,7 +6786,7 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
@@ -6698,13 +6798,13 @@
         <v>72</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>72</v>
+        <v>330</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>72</v>
@@ -6713,12 +6813,12 @@
         <v>72</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>315</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6729,7 +6829,7 @@
         <v>73</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>72</v>
@@ -6741,13 +6841,13 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6798,13 +6898,13 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>72</v>
@@ -6816,13 +6916,13 @@
         <v>72</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>72</v>
@@ -6830,11 +6930,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6853,16 +6953,16 @@
         <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6900,19 +7000,19 @@
         <v>72</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
@@ -6924,19 +7024,19 @@
         <v>72</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>72</v>
@@ -6944,7 +7044,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6952,10 +7052,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>72</v>
@@ -6964,16 +7064,16 @@
         <v>72</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -7000,13 +7100,11 @@
         <v>72</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>72</v>
@@ -7024,19 +7122,19 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>72</v>
@@ -7056,7 +7154,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7067,7 +7165,7 @@
         <v>73</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>72</v>
@@ -7076,16 +7174,16 @@
         <v>72</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7136,19 +7234,19 @@
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>72</v>
@@ -7168,7 +7266,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7179,7 +7277,7 @@
         <v>73</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>72</v>
@@ -7188,16 +7286,16 @@
         <v>72</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7248,19 +7346,19 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>72</v>
@@ -7280,7 +7378,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7291,7 +7389,7 @@
         <v>73</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>72</v>
@@ -7300,19 +7398,19 @@
         <v>72</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7362,19 +7460,19 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>72</v>
@@ -7394,7 +7492,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7405,7 +7503,7 @@
         <v>73</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>72</v>
@@ -7414,19 +7512,19 @@
         <v>72</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7476,19 +7574,19 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>72</v>
@@ -7503,12 +7601,12 @@
         <v>72</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>350</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7519,7 +7617,7 @@
         <v>73</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>72</v>
@@ -7528,16 +7626,16 @@
         <v>72</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7588,19 +7686,19 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>72</v>
@@ -7620,7 +7718,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7631,7 +7729,7 @@
         <v>73</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>72</v>
@@ -7640,19 +7738,19 @@
         <v>72</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7702,19 +7800,19 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>72</v>
@@ -7734,7 +7832,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7757,13 +7855,13 @@
         <v>72</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7814,7 +7912,7 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -7826,13 +7924,13 @@
         <v>72</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>72</v>
@@ -7846,7 +7944,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7869,17 +7967,17 @@
         <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>72</v>
@@ -7928,7 +8026,7 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>73</v>
@@ -7940,13 +8038,13 @@
         <v>72</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>92</v>
+        <v>387</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>72</v>
@@ -7960,7 +8058,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7971,7 +8069,7 @@
         <v>73</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>72</v>
@@ -7983,13 +8081,13 @@
         <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8040,13 +8138,13 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>72</v>
@@ -8058,13 +8156,13 @@
         <v>72</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>72</v>
@@ -8072,11 +8170,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8095,16 +8193,16 @@
         <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8154,7 +8252,7 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
@@ -8166,19 +8264,19 @@
         <v>72</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>72</v>
@@ -8186,11 +8284,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8203,25 +8301,25 @@
         <v>72</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>72</v>
@@ -8270,7 +8368,7 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
@@ -8282,19 +8380,19 @@
         <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>72</v>
@@ -8302,7 +8400,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8313,7 +8411,7 @@
         <v>73</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>72</v>
@@ -8325,13 +8423,13 @@
         <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8358,13 +8456,13 @@
         <v>72</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>72</v>
@@ -8382,25 +8480,25 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>72</v>
@@ -8414,7 +8512,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8422,10 +8520,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>72</v>
@@ -8437,16 +8535,16 @@
         <v>72</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8472,13 +8570,13 @@
         <v>72</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>72</v>
@@ -8496,25 +8594,25 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>72</v>
@@ -8528,7 +8626,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8539,7 +8637,7 @@
         <v>73</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>72</v>
@@ -8551,13 +8649,13 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8608,13 +8706,13 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>72</v>
@@ -8626,13 +8724,13 @@
         <v>72</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>72</v>
@@ -8640,11 +8738,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8663,16 +8761,16 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8710,19 +8808,19 @@
         <v>72</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
@@ -8734,19 +8832,19 @@
         <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>72</v>
@@ -8754,7 +8852,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8774,22 +8872,22 @@
         <v>72</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>72</v>
@@ -8838,7 +8936,7 @@
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
@@ -8850,19 +8948,19 @@
         <v>72</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>72</v>
+        <v>415</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>398</v>
+        <v>72</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>72</v>
@@ -8870,7 +8968,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8881,7 +8979,7 @@
         <v>73</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>72</v>
@@ -8890,22 +8988,22 @@
         <v>72</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>72</v>
@@ -8954,39 +9052,39 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>72</v>
+        <v>422</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>405</v>
+        <v>72</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>406</v>
+        <v>423</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8997,7 +9095,7 @@
         <v>73</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>72</v>
@@ -9009,13 +9107,13 @@
         <v>72</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9042,13 +9140,13 @@
         <v>72</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>72</v>
@@ -9066,25 +9164,25 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>72</v>
@@ -9098,7 +9196,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9109,7 +9207,7 @@
         <v>73</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>72</v>
@@ -9121,13 +9219,13 @@
         <v>72</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9154,13 +9252,13 @@
         <v>72</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>72</v>
@@ -9178,25 +9276,25 @@
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>72</v>
@@ -9210,7 +9308,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9233,13 +9331,13 @@
         <v>72</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9266,11 +9364,11 @@
         <v>72</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" t="s" s="2">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>72</v>
@@ -9288,7 +9386,7 @@
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>73</v>
@@ -9300,13 +9398,13 @@
         <v>72</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>72</v>
@@ -9315,12 +9413,12 @@
         <v>72</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>421</v>
+        <v>438</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9343,13 +9441,13 @@
         <v>72</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9400,7 +9498,7 @@
         <v>72</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>73</v>
@@ -9412,13 +9510,13 @@
         <v>72</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>72</v>
@@ -9432,7 +9530,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9455,13 +9553,13 @@
         <v>72</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9512,7 +9610,7 @@
         <v>72</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>73</v>
@@ -9524,13 +9622,13 @@
         <v>72</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>92</v>
+        <v>387</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>72</v>
@@ -9544,7 +9642,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9555,7 +9653,7 @@
         <v>73</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>72</v>
@@ -9567,13 +9665,13 @@
         <v>72</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9624,13 +9722,13 @@
         <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>72</v>
@@ -9642,13 +9740,13 @@
         <v>72</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>72</v>
@@ -9656,11 +9754,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9679,16 +9777,16 @@
         <v>72</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9738,7 +9836,7 @@
         <v>72</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>73</v>
@@ -9750,19 +9848,19 @@
         <v>72</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>72</v>
@@ -9770,11 +9868,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9787,25 +9885,25 @@
         <v>72</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>72</v>
@@ -9854,7 +9952,7 @@
         <v>72</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>73</v>
@@ -9866,19 +9964,19 @@
         <v>72</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>72</v>
@@ -9886,7 +9984,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9897,7 +9995,7 @@
         <v>73</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>72</v>
@@ -9909,13 +10007,13 @@
         <v>72</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9942,13 +10040,13 @@
         <v>72</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>72</v>
@@ -9966,25 +10064,25 @@
         <v>72</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>72</v>
@@ -9998,7 +10096,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10009,7 +10107,7 @@
         <v>73</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>72</v>
@@ -10021,13 +10119,13 @@
         <v>72</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10078,25 +10176,25 @@
         <v>72</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>72</v>
@@ -10110,7 +10208,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10121,7 +10219,7 @@
         <v>73</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>72</v>
@@ -10133,13 +10231,13 @@
         <v>72</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10190,25 +10288,25 @@
         <v>72</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>72</v>
@@ -10222,7 +10320,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10245,16 +10343,16 @@
         <v>72</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10304,7 +10402,7 @@
         <v>72</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>73</v>
@@ -10316,13 +10414,13 @@
         <v>72</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>92</v>
+        <v>387</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>72</v>
+        <v>466</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>72</v>
@@ -10331,12 +10429,12 @@
         <v>72</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>449</v>
+        <v>467</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10347,7 +10445,7 @@
         <v>73</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>72</v>
@@ -10359,13 +10457,13 @@
         <v>72</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10416,13 +10514,13 @@
         <v>72</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>72</v>
@@ -10434,13 +10532,13 @@
         <v>72</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>72</v>
@@ -10448,11 +10546,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10471,16 +10569,16 @@
         <v>72</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10530,7 +10628,7 @@
         <v>72</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>73</v>
@@ -10542,19 +10640,19 @@
         <v>72</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>72</v>
@@ -10562,11 +10660,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10579,25 +10677,25 @@
         <v>72</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>72</v>
@@ -10646,7 +10744,7 @@
         <v>72</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>73</v>
@@ -10658,19 +10756,19 @@
         <v>72</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>72</v>
@@ -10678,7 +10776,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10689,7 +10787,7 @@
         <v>73</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>72</v>
@@ -10701,13 +10799,13 @@
         <v>72</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10758,25 +10856,25 @@
         <v>72</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>72</v>
@@ -10790,7 +10888,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10801,7 +10899,7 @@
         <v>73</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>72</v>
@@ -10813,13 +10911,13 @@
         <v>72</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10870,25 +10968,25 @@
         <v>72</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>72</v>
@@ -10902,7 +11000,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10913,7 +11011,7 @@
         <v>73</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>72</v>
@@ -10925,13 +11023,13 @@
         <v>72</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10982,25 +11080,25 @@
         <v>72</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>72</v>
+        <v>248</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>72</v>
@@ -11014,7 +11112,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11025,7 +11123,7 @@
         <v>73</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>72</v>
@@ -11037,13 +11135,13 @@
         <v>72</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11094,25 +11192,25 @@
         <v>72</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>72</v>
+        <v>248</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>72</v>
@@ -11126,7 +11224,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11137,7 +11235,7 @@
         <v>73</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>72</v>
@@ -11149,13 +11247,13 @@
         <v>72</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11182,13 +11280,13 @@
         <v>72</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>72</v>
@@ -11206,25 +11304,25 @@
         <v>72</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>72</v>
+        <v>488</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>72</v>
@@ -11238,7 +11336,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11261,13 +11359,13 @@
         <v>72</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11294,13 +11392,13 @@
         <v>72</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>72</v>
+        <v>306</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>72</v>
+        <v>492</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>72</v>
+        <v>493</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>72</v>
@@ -11318,7 +11416,7 @@
         <v>72</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>73</v>
@@ -11330,13 +11428,13 @@
         <v>72</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>72</v>
+        <v>494</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>72</v>
@@ -11350,7 +11448,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11373,16 +11471,16 @@
         <v>72</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>474</v>
+        <v>496</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11408,13 +11506,13 @@
         <v>72</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>72</v>
+        <v>306</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>72</v>
+        <v>499</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>72</v>
@@ -11432,7 +11530,7 @@
         <v>72</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>73</v>
@@ -11444,13 +11542,13 @@
         <v>72</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>72</v>
+        <v>501</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>72</v>
@@ -11464,7 +11562,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11487,13 +11585,13 @@
         <v>72</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11544,7 +11642,7 @@
         <v>72</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>73</v>
@@ -11556,13 +11654,13 @@
         <v>72</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>72</v>
@@ -11576,7 +11674,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11599,13 +11697,13 @@
         <v>72</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11656,7 +11754,7 @@
         <v>72</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>73</v>
@@ -11668,13 +11766,13 @@
         <v>72</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>72</v>
@@ -11688,7 +11786,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11699,7 +11797,7 @@
         <v>73</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>72</v>
@@ -11711,25 +11809,25 @@
         <v>72</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>198</v>
+        <v>509</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>487</v>
+        <v>513</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P84" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="Q84" t="s" s="2">
         <v>72</v>
@@ -11750,13 +11848,13 @@
         <v>72</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>72</v>
@@ -11774,25 +11872,25 @@
         <v>72</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>72</v>
@@ -11806,7 +11904,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>488</v>
+        <v>514</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11829,13 +11927,13 @@
         <v>72</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>489</v>
+        <v>515</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>491</v>
+        <v>517</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11886,7 +11984,7 @@
         <v>72</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>488</v>
+        <v>514</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>73</v>
@@ -11898,13 +11996,13 @@
         <v>72</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>72</v>
@@ -11918,7 +12016,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11941,16 +12039,16 @@
         <v>72</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>494</v>
+        <v>520</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>495</v>
+        <v>521</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12000,7 +12098,7 @@
         <v>72</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>73</v>
@@ -12012,13 +12110,13 @@
         <v>72</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>92</v>
+        <v>387</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>72</v>
@@ -12032,7 +12130,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12043,7 +12141,7 @@
         <v>73</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>72</v>
@@ -12055,13 +12153,13 @@
         <v>72</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12112,13 +12210,13 @@
         <v>72</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>72</v>
@@ -12130,13 +12228,13 @@
         <v>72</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>72</v>
@@ -12144,11 +12242,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12167,16 +12265,16 @@
         <v>72</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12226,7 +12324,7 @@
         <v>72</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>73</v>
@@ -12238,19 +12336,19 @@
         <v>72</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>72</v>
@@ -12258,11 +12356,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12275,25 +12373,25 @@
         <v>72</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>72</v>
@@ -12342,7 +12440,7 @@
         <v>72</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>73</v>
@@ -12354,19 +12452,19 @@
         <v>72</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>72</v>
@@ -12374,7 +12472,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12382,10 +12480,10 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>72</v>
@@ -12397,16 +12495,16 @@
         <v>72</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>500</v>
+        <v>526</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>502</v>
+        <v>528</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12432,13 +12530,13 @@
         <v>72</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>503</v>
+        <v>529</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>504</v>
+        <v>530</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>72</v>
@@ -12456,25 +12554,25 @@
         <v>72</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>72</v>
@@ -12488,7 +12586,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>505</v>
+        <v>531</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12499,7 +12597,7 @@
         <v>73</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>72</v>
@@ -12511,16 +12609,16 @@
         <v>72</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>508</v>
+        <v>534</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12570,25 +12668,25 @@
         <v>72</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>505</v>
+        <v>531</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>72</v>
@@ -12602,7 +12700,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>510</v>
+        <v>536</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12625,13 +12723,13 @@
         <v>72</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>511</v>
+        <v>537</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>512</v>
+        <v>538</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>513</v>
+        <v>539</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12682,7 +12780,7 @@
         <v>72</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>510</v>
+        <v>536</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>73</v>
@@ -12694,13 +12792,13 @@
         <v>72</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>72</v>
@@ -12714,7 +12812,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>514</v>
+        <v>540</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12737,13 +12835,13 @@
         <v>72</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>511</v>
+        <v>537</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>515</v>
+        <v>541</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12794,7 +12892,7 @@
         <v>72</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>514</v>
+        <v>540</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>73</v>
@@ -12806,13 +12904,13 @@
         <v>72</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>72</v>
@@ -12826,7 +12924,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>517</v>
+        <v>543</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12849,16 +12947,16 @@
         <v>72</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>519</v>
+        <v>545</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -12908,7 +13006,7 @@
         <v>72</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>517</v>
+        <v>543</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>73</v>
@@ -12920,13 +13018,13 @@
         <v>72</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>92</v>
+        <v>387</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>72</v>
@@ -12940,7 +13038,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12951,7 +13049,7 @@
         <v>73</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>72</v>
@@ -12963,13 +13061,13 @@
         <v>72</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13020,13 +13118,13 @@
         <v>72</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>72</v>
@@ -13038,13 +13136,13 @@
         <v>72</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>72</v>
@@ -13052,11 +13150,11 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>522</v>
+        <v>548</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -13075,16 +13173,16 @@
         <v>72</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -13134,7 +13232,7 @@
         <v>72</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>73</v>
@@ -13146,19 +13244,19 @@
         <v>72</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>72</v>
@@ -13166,11 +13264,11 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>523</v>
+        <v>549</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -13183,25 +13281,25 @@
         <v>72</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>72</v>
@@ -13250,7 +13348,7 @@
         <v>72</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>73</v>
@@ -13262,19 +13360,19 @@
         <v>72</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>72</v>
@@ -13282,7 +13380,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>524</v>
+        <v>550</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13290,10 +13388,10 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>72</v>
@@ -13305,13 +13403,13 @@
         <v>72</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>526</v>
+        <v>552</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13362,25 +13460,25 @@
         <v>72</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>524</v>
+        <v>550</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>72</v>
@@ -13394,7 +13492,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13402,10 +13500,10 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>72</v>
@@ -13417,13 +13515,13 @@
         <v>72</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>529</v>
+        <v>555</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13450,13 +13548,13 @@
         <v>72</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>72</v>
@@ -13474,25 +13572,25 @@
         <v>72</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>72</v>
@@ -13506,7 +13604,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13517,7 +13615,7 @@
         <v>73</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>72</v>
@@ -13529,13 +13627,13 @@
         <v>72</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>533</v>
+        <v>559</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>534</v>
+        <v>560</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>535</v>
+        <v>561</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13586,25 +13684,25 @@
         <v>72</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>72</v>
@@ -13618,7 +13716,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13629,7 +13727,7 @@
         <v>73</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>72</v>
@@ -13641,13 +13739,13 @@
         <v>72</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>538</v>
+        <v>564</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>539</v>
+        <v>565</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13698,25 +13796,25 @@
         <v>72</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>72</v>
+        <v>566</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>72</v>
@@ -13730,7 +13828,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13753,13 +13851,13 @@
         <v>72</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>541</v>
+        <v>568</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13810,7 +13908,7 @@
         <v>72</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>73</v>
@@ -13822,13 +13920,13 @@
         <v>72</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>92</v>
+        <v>387</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>72</v>
+        <v>570</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>72</v>
@@ -13842,7 +13940,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>543</v>
+        <v>571</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13853,7 +13951,7 @@
         <v>73</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>72</v>
@@ -13865,13 +13963,13 @@
         <v>72</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13922,13 +14020,13 @@
         <v>72</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>72</v>
@@ -13940,13 +14038,13 @@
         <v>72</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>72</v>
@@ -13954,11 +14052,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>544</v>
+        <v>572</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -13977,16 +14075,16 @@
         <v>72</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -14036,7 +14134,7 @@
         <v>72</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>73</v>
@@ -14048,19 +14146,19 @@
         <v>72</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>72</v>
@@ -14068,11 +14166,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>545</v>
+        <v>573</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -14085,25 +14183,25 @@
         <v>72</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>72</v>
@@ -14152,7 +14250,7 @@
         <v>72</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>73</v>
@@ -14164,19 +14262,19 @@
         <v>72</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>72</v>
@@ -14184,7 +14282,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14192,10 +14290,10 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>72</v>
@@ -14207,13 +14305,13 @@
         <v>72</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -14240,13 +14338,13 @@
         <v>72</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>72</v>
@@ -14264,25 +14362,25 @@
         <v>72</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>72</v>
+        <v>579</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>72</v>
@@ -14296,7 +14394,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14307,7 +14405,7 @@
         <v>73</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>72</v>
@@ -14319,13 +14417,13 @@
         <v>72</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>552</v>
+        <v>581</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>553</v>
+        <v>582</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -14352,13 +14450,13 @@
         <v>72</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>554</v>
+        <v>583</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>555</v>
+        <v>584</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>72</v>
@@ -14376,25 +14474,25 @@
         <v>72</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>72</v>
+        <v>585</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>72</v>
@@ -14408,7 +14506,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14419,7 +14517,7 @@
         <v>73</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>72</v>
@@ -14431,13 +14529,13 @@
         <v>72</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>558</v>
+        <v>588</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14464,13 +14562,13 @@
         <v>72</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>559</v>
+        <v>589</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>72</v>
@@ -14488,25 +14586,25 @@
         <v>72</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>72</v>
+        <v>591</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>72</v>
@@ -14520,7 +14618,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>561</v>
+        <v>592</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14531,7 +14629,7 @@
         <v>73</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>72</v>
@@ -14543,13 +14641,13 @@
         <v>72</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>562</v>
+        <v>593</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>563</v>
+        <v>594</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -14576,13 +14674,13 @@
         <v>72</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>564</v>
+        <v>595</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>565</v>
+        <v>596</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>72</v>
@@ -14600,25 +14698,25 @@
         <v>72</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>561</v>
+        <v>592</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>72</v>
@@ -14632,7 +14730,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>566</v>
+        <v>597</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14643,7 +14741,7 @@
         <v>73</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>72</v>
@@ -14655,13 +14753,13 @@
         <v>72</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>567</v>
+        <v>598</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14688,13 +14786,13 @@
         <v>72</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>570</v>
+        <v>601</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>72</v>
@@ -14712,25 +14810,25 @@
         <v>72</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>566</v>
+        <v>597</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>72</v>
@@ -14744,7 +14842,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>571</v>
+        <v>602</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14755,7 +14853,7 @@
         <v>73</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>72</v>
@@ -14767,13 +14865,13 @@
         <v>72</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>572</v>
+        <v>603</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>573</v>
+        <v>604</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -14800,13 +14898,13 @@
         <v>72</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>574</v>
+        <v>605</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>575</v>
+        <v>606</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>72</v>
@@ -14824,25 +14922,25 @@
         <v>72</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>571</v>
+        <v>602</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>72</v>
@@ -14856,7 +14954,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>576</v>
+        <v>607</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14867,7 +14965,7 @@
         <v>73</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>72</v>
@@ -14879,13 +14977,13 @@
         <v>72</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>577</v>
+        <v>608</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>578</v>
+        <v>609</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -14912,13 +15010,13 @@
         <v>72</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>579</v>
+        <v>610</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>580</v>
+        <v>611</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>72</v>
@@ -14936,25 +15034,25 @@
         <v>72</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>576</v>
+        <v>607</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>72</v>
@@ -14968,7 +15066,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>581</v>
+        <v>612</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14979,7 +15077,7 @@
         <v>73</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>72</v>
@@ -14991,13 +15089,13 @@
         <v>72</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>582</v>
+        <v>613</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>583</v>
+        <v>614</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -15024,13 +15122,13 @@
         <v>72</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>584</v>
+        <v>615</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>585</v>
+        <v>616</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>72</v>
@@ -15048,25 +15146,25 @@
         <v>72</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>581</v>
+        <v>612</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>72</v>
@@ -15080,7 +15178,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>586</v>
+        <v>617</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15091,7 +15189,7 @@
         <v>73</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>72</v>
@@ -15103,16 +15201,16 @@
         <v>72</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>587</v>
+        <v>618</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>588</v>
+        <v>619</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>589</v>
+        <v>620</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>590</v>
+        <v>621</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
@@ -15162,25 +15260,25 @@
         <v>72</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>586</v>
+        <v>617</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>591</v>
+        <v>622</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>72</v>
+        <v>466</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>72</v>
@@ -15194,7 +15292,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>592</v>
+        <v>623</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15205,7 +15303,7 @@
         <v>73</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>72</v>
@@ -15217,16 +15315,16 @@
         <v>72</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>593</v>
+        <v>624</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>595</v>
+        <v>626</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>596</v>
+        <v>627</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -15276,25 +15374,25 @@
         <v>72</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>592</v>
+        <v>623</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>72</v>
@@ -15308,7 +15406,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>597</v>
+        <v>628</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15331,16 +15429,16 @@
         <v>72</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>598</v>
+        <v>629</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>599</v>
+        <v>630</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>600</v>
+        <v>631</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -15390,7 +15488,7 @@
         <v>72</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>597</v>
+        <v>628</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>73</v>
@@ -15402,13 +15500,13 @@
         <v>72</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>92</v>
+        <v>387</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>72</v>
@@ -15422,7 +15520,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>601</v>
+        <v>632</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15433,7 +15531,7 @@
         <v>73</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>72</v>
@@ -15445,13 +15543,13 @@
         <v>72</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -15502,13 +15600,13 @@
         <v>72</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>72</v>
@@ -15520,13 +15618,13 @@
         <v>72</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>72</v>
@@ -15534,11 +15632,11 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>602</v>
+        <v>633</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15557,16 +15655,16 @@
         <v>72</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
@@ -15616,7 +15714,7 @@
         <v>72</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>73</v>
@@ -15628,19 +15726,19 @@
         <v>72</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>72</v>
@@ -15648,11 +15746,11 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>603</v>
+        <v>634</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -15665,25 +15763,25 @@
         <v>72</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>72</v>
@@ -15732,7 +15830,7 @@
         <v>72</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>73</v>
@@ -15744,19 +15842,19 @@
         <v>72</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>72</v>
@@ -15764,7 +15862,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>604</v>
+        <v>635</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15775,7 +15873,7 @@
         <v>73</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>72</v>
@@ -15787,16 +15885,16 @@
         <v>72</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>605</v>
+        <v>636</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>606</v>
+        <v>637</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>607</v>
+        <v>638</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
@@ -15846,25 +15944,25 @@
         <v>72</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>604</v>
+        <v>635</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>72</v>
@@ -15878,7 +15976,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>608</v>
+        <v>639</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15889,7 +15987,7 @@
         <v>73</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>72</v>
@@ -15901,16 +15999,16 @@
         <v>72</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>609</v>
+        <v>640</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>610</v>
+        <v>641</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
@@ -15960,25 +16058,25 @@
         <v>72</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>608</v>
+        <v>639</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>72</v>
@@ -15992,7 +16090,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>611</v>
+        <v>642</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16018,10 +16116,10 @@
         <v>72</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>613</v>
+        <v>644</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -16072,7 +16170,7 @@
         <v>72</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>611</v>
+        <v>642</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>73</v>
@@ -16084,13 +16182,13 @@
         <v>72</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>614</v>
+        <v>645</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>72</v>
